--- a/excel/plan.xlsx
+++ b/excel/plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leocr\Desktop\win7app\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yury\PycharmProjects\VKR\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA1095-03CD-4DF4-868B-D0966089D1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43959ACE-0B65-4BC8-9899-37A7E95EE088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="300" windowWidth="20835" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План" sheetId="4" r:id="rId1"/>
@@ -538,844 +538,844 @@
     <t>Б1.О.03</t>
   </si>
   <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>106.9</t>
+  </si>
+  <si>
+    <t>192.5</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>37.75</t>
+  </si>
+  <si>
+    <t>71.75</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Б1.О.04</t>
+  </si>
+  <si>
+    <t>Безопасность жизнедеятельности</t>
+  </si>
+  <si>
+    <t>36.25</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Б1.О.05</t>
+  </si>
+  <si>
+    <t>Физическая культура и спорт</t>
+  </si>
+  <si>
+    <t>21.75</t>
+  </si>
+  <si>
+    <t>Б1.О.06</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>315.8</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>115.65</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>Б1.О.06.01</t>
+  </si>
+  <si>
+    <t>Линейная алгебра</t>
+  </si>
+  <si>
+    <t>70.4</t>
+  </si>
+  <si>
+    <t>Б1.О.06.02</t>
+  </si>
+  <si>
+    <t>Математический анализ</t>
+  </si>
+  <si>
+    <t>124.65</t>
+  </si>
+  <si>
+    <t>129.75</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Б1.О.06.03</t>
+  </si>
+  <si>
+    <t>Теория вероятностей</t>
+  </si>
+  <si>
+    <t>50.35</t>
+  </si>
+  <si>
+    <t>57.65</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>Б1.О.06.04</t>
+  </si>
+  <si>
+    <t>Математическая статистика</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Б1.О.07</t>
+  </si>
+  <si>
+    <t>Моделирование систем</t>
+  </si>
+  <si>
+    <t>52.4</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Б1.О.08</t>
+  </si>
+  <si>
+    <t>Теория информации, данные, знания</t>
+  </si>
+  <si>
+    <t>74.4</t>
+  </si>
+  <si>
+    <t>Б1.О.09</t>
+  </si>
+  <si>
+    <t>Алгоритмы и структуры данных</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Б1.О.10</t>
+  </si>
+  <si>
+    <t>Информационные технологии</t>
+  </si>
+  <si>
+    <t>73.4</t>
+  </si>
+  <si>
+    <t>Б1.О.11</t>
+  </si>
+  <si>
+    <t>Технологии программирования</t>
+  </si>
+  <si>
+    <t>59.4</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Б1.О.12</t>
+  </si>
+  <si>
+    <t>Управление данными</t>
+  </si>
+  <si>
+    <t>Б1.О.13</t>
+  </si>
+  <si>
+    <t>Инструментальные средства информационных систем</t>
+  </si>
+  <si>
+    <t>48.25</t>
+  </si>
+  <si>
+    <t>59.75</t>
+  </si>
+  <si>
+    <t>Б1.О.14</t>
+  </si>
+  <si>
+    <t>Методы искусственного интеллекта</t>
+  </si>
+  <si>
+    <t>93.75</t>
+  </si>
+  <si>
+    <t>Б1.О.15</t>
+  </si>
+  <si>
+    <t>Администрирование информационных систем</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Б1.О.16</t>
+  </si>
+  <si>
+    <t>Большие данные</t>
+  </si>
+  <si>
+    <t>50.4</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Б1.О.17</t>
+  </si>
+  <si>
+    <t>Управление IT-проектами</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Б1.О.18</t>
+  </si>
+  <si>
+    <t>Теория систем и системный анализ</t>
+  </si>
+  <si>
+    <t>68.35</t>
+  </si>
+  <si>
+    <t>75.65</t>
+  </si>
+  <si>
+    <t>Б1.О.19</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Б1.О.20</t>
+  </si>
+  <si>
+    <t>Право</t>
+  </si>
+  <si>
+    <t>Б1.О.21</t>
+  </si>
+  <si>
+    <t>Русский язык, культура речи и деловое общение</t>
+  </si>
+  <si>
+    <t>32.25</t>
+  </si>
+  <si>
+    <t>39.75</t>
+  </si>
+  <si>
+    <t>Б1.О.22</t>
+  </si>
+  <si>
+    <t>Введение в компьютерные науки на иностранном языке</t>
+  </si>
+  <si>
+    <t>35.75</t>
+  </si>
+  <si>
+    <t>Б1.О.23</t>
+  </si>
+  <si>
+    <t>Теория принятия решений</t>
+  </si>
+  <si>
+    <t>68.25</t>
+  </si>
+  <si>
+    <t>Б1.О.24</t>
+  </si>
+  <si>
+    <t>Теория массового обслуживания</t>
+  </si>
+  <si>
+    <t>Б1.О.25</t>
+  </si>
+  <si>
+    <t>Эконометрика</t>
+  </si>
+  <si>
+    <t>Б1.О.26</t>
+  </si>
+  <si>
+    <t>Технологии обработки информации</t>
+  </si>
+  <si>
+    <t>Б1.О.27</t>
+  </si>
+  <si>
+    <t>Компьютерная математика</t>
+  </si>
+  <si>
+    <t>Б1.О.28</t>
+  </si>
+  <si>
+    <t>Многомерные статистические методы</t>
+  </si>
+  <si>
+    <t>39.65</t>
+  </si>
+  <si>
+    <t>Б1.О.29</t>
+  </si>
+  <si>
+    <t>Информационная безопасность</t>
+  </si>
+  <si>
+    <t>Б1.О.ДВ.01</t>
+  </si>
+  <si>
+    <t>Элективные курсы по физической культуре и спорту</t>
+  </si>
+  <si>
+    <t>Б1.О.ДВ.01.01</t>
+  </si>
+  <si>
+    <t>Базовая физическая культура</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Б1.О.ДВ.01.02</t>
+  </si>
+  <si>
+    <t>Базовые виды спорта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Часть, формируемая участниками образовательных отношений </t>
+  </si>
+  <si>
+    <t>3060</t>
+  </si>
+  <si>
+    <t>1561.3</t>
+  </si>
+  <si>
+    <t>1219.1</t>
+  </si>
+  <si>
+    <t>279.6</t>
+  </si>
+  <si>
+    <t>50.75</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>71.5</t>
+  </si>
+  <si>
+    <t>125.4</t>
+  </si>
+  <si>
+    <t>179.4</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>226.15</t>
+  </si>
+  <si>
+    <t>58.2</t>
+  </si>
+  <si>
+    <t>232.15</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>136.5</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>197.25</t>
+  </si>
+  <si>
+    <t>Б1.В.01</t>
+  </si>
+  <si>
+    <t>Высокоуровневое программирование</t>
+  </si>
+  <si>
+    <t>Б1.В.02</t>
+  </si>
+  <si>
+    <t>Программная инженерия</t>
+  </si>
+  <si>
+    <t>Б1.В.03</t>
+  </si>
+  <si>
+    <t>ERP-системы в управлении бизнесом</t>
+  </si>
+  <si>
+    <t>Б1.В.04</t>
+  </si>
+  <si>
+    <t>Операционные системы</t>
+  </si>
+  <si>
+    <t>Б1.В.05</t>
+  </si>
+  <si>
+    <t>Базы данных</t>
+  </si>
+  <si>
+    <t>71.35</t>
+  </si>
+  <si>
+    <t>72.65</t>
+  </si>
+  <si>
+    <t>Б1.В.06</t>
+  </si>
+  <si>
+    <t>Основы технологии производства продукции растениеводства</t>
+  </si>
+  <si>
+    <t>Б1.В.07</t>
+  </si>
+  <si>
+    <t>Основы  животноводства</t>
+  </si>
+  <si>
+    <t>Б1.В.08</t>
+  </si>
+  <si>
+    <t>Экономическая теория</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Б1.В.09</t>
+  </si>
+  <si>
+    <t>Бухгалтерский учет</t>
+  </si>
+  <si>
+    <t>102.65</t>
+  </si>
+  <si>
+    <t>52.75</t>
+  </si>
+  <si>
+    <t>Б1.В.10</t>
+  </si>
+  <si>
+    <t>Финансы</t>
+  </si>
+  <si>
+    <t>Б1.В.11</t>
+  </si>
+  <si>
+    <t>Статистика</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>123.65</t>
+  </si>
+  <si>
+    <t>67.75</t>
+  </si>
+  <si>
+    <t>Б1.В.12</t>
+  </si>
+  <si>
+    <t>Макроэкономическая статистика</t>
+  </si>
+  <si>
+    <t>Б1.В.13</t>
+  </si>
+  <si>
+    <t>Лабораторный практикум по эконометрике с использованием пакетов прикладных программ</t>
+  </si>
+  <si>
+    <t>34.25</t>
+  </si>
+  <si>
+    <t>Б1.В.14</t>
+  </si>
+  <si>
+    <t>Экономическая безопасность</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Б1.В.15</t>
+  </si>
+  <si>
+    <t>Основы науки о данных (Data Science)</t>
+  </si>
+  <si>
+    <t>Б1.В.16</t>
+  </si>
+  <si>
+    <t>Архитектура информационных систем</t>
+  </si>
+  <si>
+    <t>Б1.В.17</t>
+  </si>
+  <si>
+    <t>Инфокоммуникационные системы и сети</t>
+  </si>
+  <si>
+    <t>Б1.В.18</t>
+  </si>
+  <si>
+    <t>Методы и средства проектирования информационных систем и технологий</t>
+  </si>
+  <si>
+    <t>141.65</t>
+  </si>
+  <si>
+    <t>121.75</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.01</t>
+  </si>
+  <si>
+    <t>Дисциплины (модули) по выбору 1 (ДВ.1)</t>
+  </si>
+  <si>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>54.65</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.01.01</t>
+  </si>
+  <si>
+    <t>Системное программирование</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.01.02</t>
+  </si>
+  <si>
+    <t>Интернет-программирование</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.02</t>
+  </si>
+  <si>
+    <t>Дисциплины (модули) по выбору 2 (ДВ.2)</t>
+  </si>
+  <si>
+    <t>100.6</t>
+  </si>
+  <si>
+    <t>79.4</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.02.01</t>
+  </si>
+  <si>
+    <t>Анализ экономических данных с использованием современных информационных технологий на иностранном языке</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.02.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анализ экономических данных с использованием современных информационных технологий </t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.03</t>
+  </si>
+  <si>
+    <t>Дисциплины (модули) по выбору 3 (ДВ.3)</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.03.01</t>
+  </si>
+  <si>
+    <t>Расчетно-графическая статистика в среде R  на иностранном языке</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.03.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расчетно-графическая статистика в среде R  </t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.04</t>
+  </si>
+  <si>
+    <t>Дисциплины (модули) по выбору 4 (ДВ.4)</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.04.01</t>
+  </si>
+  <si>
+    <t>Анализ банковских данных с использованием пакетов прикладных статистических программ на иностранном языке</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.04.02</t>
+  </si>
+  <si>
+    <t>Анализ банковских данных с использованием пакетов прикладных статистических программ</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.05</t>
+  </si>
+  <si>
+    <t>Дисциплины (модули) по выбору 5 (ДВ.5)</t>
+  </si>
+  <si>
+    <t>100.65</t>
+  </si>
+  <si>
+    <t>54.75</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.05.01</t>
+  </si>
+  <si>
+    <t>Интеллектуальный анализ данных и статистика на иностранном языке</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.05.02</t>
+  </si>
+  <si>
+    <t>Интеллектуальный анализ данных и статистика</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.06</t>
+  </si>
+  <si>
+    <t>Дисциплины (модули) по выбору 6 (ДВ.6)</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.06.01</t>
+  </si>
+  <si>
+    <t>Анализ данных международной статистики с использованием пакетов прикладных программ на иностранном языке</t>
+  </si>
+  <si>
+    <t>Б1.В.ДВ.06.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анализ данных международной статистики с использованием пакетов прикладных программ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок 2.Практика </t>
+  </si>
+  <si>
+    <t>85.33</t>
+  </si>
+  <si>
+    <t>634.67</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>142.67</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Б2.О.01</t>
+  </si>
+  <si>
+    <t>Б2.О.01.01(У)</t>
+  </si>
+  <si>
+    <t>Ознакомительная практика по стандартам оформления текстовых документов</t>
+  </si>
+  <si>
+    <t>Б2.О.01.02(У)</t>
+  </si>
+  <si>
+    <t>Ознакомительная практика</t>
+  </si>
+  <si>
+    <t>Б2.О.02</t>
+  </si>
+  <si>
+    <t>Б2.О.02.01(П)</t>
+  </si>
+  <si>
+    <t>Технологическая (проектно-технологическая практика)</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>43.33</t>
+  </si>
+  <si>
+    <t>388.67</t>
+  </si>
+  <si>
+    <t>Б2.В.01</t>
+  </si>
+  <si>
+    <t>Б2.В.01.01(У)</t>
+  </si>
+  <si>
+    <t>Ознакомительная практика по технологии производства и хранения продукции животноводства</t>
+  </si>
+  <si>
+    <t>Б2.В.01.02(У)</t>
+  </si>
+  <si>
+    <t>Ознакомительная практика по технологии производства и хранения продукции растениеводства</t>
+  </si>
+  <si>
+    <t>Б2.В.02</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>356.67</t>
+  </si>
+  <si>
+    <t>Б2.В.02.01(П)</t>
+  </si>
+  <si>
+    <t>Б2.В.02.02(П)</t>
+  </si>
+  <si>
+    <t>Научно-исследовательская работа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок 3.Государственная итоговая аттестация </t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>Б3.01(Г)</t>
+  </si>
+  <si>
+    <t>Подготовка к сдаче и сдача государственного экзамена</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>105.5</t>
+  </si>
+  <si>
+    <t>Б3.02(Д)</t>
+  </si>
+  <si>
+    <t>Выполнение и защита выпускной квалификационной работы</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>198.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФТД.Факультативы </t>
+  </si>
+  <si>
+    <t>64.75</t>
+  </si>
+  <si>
+    <t>151.25</t>
+  </si>
+  <si>
+    <t>55.75</t>
+  </si>
+  <si>
+    <t>ФТД.01</t>
+  </si>
+  <si>
+    <t>Защита информации</t>
+  </si>
+  <si>
+    <t>ФТД.02</t>
+  </si>
+  <si>
+    <t>Обработка данных в среде R</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>111.5</t>
+  </si>
+  <si>
+    <t>Б1.А.11</t>
+  </si>
+  <si>
+    <t>Тестовая курсовая работа</t>
+  </si>
+  <si>
     <t>Иностранный язык</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>106.9</t>
-  </si>
-  <si>
-    <t>192.5</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>37.75</t>
-  </si>
-  <si>
-    <t>71.75</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Б1.О.04</t>
-  </si>
-  <si>
-    <t>Безопасность жизнедеятельности</t>
-  </si>
-  <si>
-    <t>36.25</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Б1.О.05</t>
-  </si>
-  <si>
-    <t>Физическая культура и спорт</t>
-  </si>
-  <si>
-    <t>21.75</t>
-  </si>
-  <si>
-    <t>Б1.О.06</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>315.8</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>115.65</t>
-  </si>
-  <si>
-    <t>33.6</t>
-  </si>
-  <si>
-    <t>Б1.О.06.01</t>
-  </si>
-  <si>
-    <t>Линейная алгебра</t>
-  </si>
-  <si>
-    <t>70.4</t>
-  </si>
-  <si>
-    <t>Б1.О.06.02</t>
-  </si>
-  <si>
-    <t>Математический анализ</t>
-  </si>
-  <si>
-    <t>124.65</t>
-  </si>
-  <si>
-    <t>129.75</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>Б1.О.06.03</t>
-  </si>
-  <si>
-    <t>Теория вероятностей</t>
-  </si>
-  <si>
-    <t>50.35</t>
-  </si>
-  <si>
-    <t>57.65</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>Б1.О.06.04</t>
-  </si>
-  <si>
-    <t>Математическая статистика</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Б1.О.07</t>
-  </si>
-  <si>
-    <t>Моделирование систем</t>
-  </si>
-  <si>
-    <t>52.4</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Б1.О.08</t>
-  </si>
-  <si>
-    <t>Теория информации, данные, знания</t>
-  </si>
-  <si>
-    <t>74.4</t>
-  </si>
-  <si>
-    <t>Б1.О.09</t>
-  </si>
-  <si>
-    <t>Алгоритмы и структуры данных</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Б1.О.10</t>
-  </si>
-  <si>
-    <t>Информационные технологии</t>
-  </si>
-  <si>
-    <t>73.4</t>
-  </si>
-  <si>
-    <t>Б1.О.11</t>
-  </si>
-  <si>
-    <t>Технологии программирования</t>
-  </si>
-  <si>
-    <t>59.4</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Б1.О.12</t>
-  </si>
-  <si>
-    <t>Управление данными</t>
-  </si>
-  <si>
-    <t>Б1.О.13</t>
-  </si>
-  <si>
-    <t>Инструментальные средства информационных систем</t>
-  </si>
-  <si>
-    <t>48.25</t>
-  </si>
-  <si>
-    <t>59.75</t>
-  </si>
-  <si>
-    <t>Б1.О.14</t>
-  </si>
-  <si>
-    <t>Методы искусственного интеллекта</t>
-  </si>
-  <si>
-    <t>93.75</t>
-  </si>
-  <si>
-    <t>Б1.О.15</t>
-  </si>
-  <si>
-    <t>Администрирование информационных систем</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Б1.О.16</t>
-  </si>
-  <si>
-    <t>Большие данные</t>
-  </si>
-  <si>
-    <t>50.4</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Б1.О.17</t>
-  </si>
-  <si>
-    <t>Управление IT-проектами</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Б1.О.18</t>
-  </si>
-  <si>
-    <t>Теория систем и системный анализ</t>
-  </si>
-  <si>
-    <t>68.35</t>
-  </si>
-  <si>
-    <t>75.65</t>
-  </si>
-  <si>
-    <t>Б1.О.19</t>
-  </si>
-  <si>
-    <t>Физика</t>
-  </si>
-  <si>
-    <t>Б1.О.20</t>
-  </si>
-  <si>
-    <t>Право</t>
-  </si>
-  <si>
-    <t>Б1.О.21</t>
-  </si>
-  <si>
-    <t>Русский язык, культура речи и деловое общение</t>
-  </si>
-  <si>
-    <t>32.25</t>
-  </si>
-  <si>
-    <t>39.75</t>
-  </si>
-  <si>
-    <t>Б1.О.22</t>
-  </si>
-  <si>
-    <t>Введение в компьютерные науки на иностранном языке</t>
-  </si>
-  <si>
-    <t>35.75</t>
-  </si>
-  <si>
-    <t>Б1.О.23</t>
-  </si>
-  <si>
-    <t>Теория принятия решений</t>
-  </si>
-  <si>
-    <t>68.25</t>
-  </si>
-  <si>
-    <t>Б1.О.24</t>
-  </si>
-  <si>
-    <t>Теория массового обслуживания</t>
-  </si>
-  <si>
-    <t>Б1.О.25</t>
-  </si>
-  <si>
-    <t>Эконометрика</t>
-  </si>
-  <si>
-    <t>Б1.О.26</t>
-  </si>
-  <si>
-    <t>Технологии обработки информации</t>
-  </si>
-  <si>
-    <t>Б1.О.27</t>
-  </si>
-  <si>
-    <t>Компьютерная математика</t>
-  </si>
-  <si>
-    <t>Б1.О.28</t>
-  </si>
-  <si>
-    <t>Многомерные статистические методы</t>
-  </si>
-  <si>
-    <t>39.65</t>
-  </si>
-  <si>
-    <t>Б1.О.29</t>
-  </si>
-  <si>
-    <t>Информационная безопасность</t>
-  </si>
-  <si>
-    <t>Б1.О.ДВ.01</t>
-  </si>
-  <si>
-    <t>Элективные курсы по физической культуре и спорту</t>
-  </si>
-  <si>
-    <t>Б1.О.ДВ.01.01</t>
-  </si>
-  <si>
-    <t>Базовая физическая культура</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Б1.О.ДВ.01.02</t>
-  </si>
-  <si>
-    <t>Базовые виды спорта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Часть, формируемая участниками образовательных отношений </t>
-  </si>
-  <si>
-    <t>3060</t>
-  </si>
-  <si>
-    <t>1561.3</t>
-  </si>
-  <si>
-    <t>1219.1</t>
-  </si>
-  <si>
-    <t>279.6</t>
-  </si>
-  <si>
-    <t>50.75</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>71.5</t>
-  </si>
-  <si>
-    <t>125.4</t>
-  </si>
-  <si>
-    <t>179.4</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>1.65</t>
-  </si>
-  <si>
-    <t>226.15</t>
-  </si>
-  <si>
-    <t>58.2</t>
-  </si>
-  <si>
-    <t>232.15</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>136.5</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>197.25</t>
-  </si>
-  <si>
-    <t>Б1.В.01</t>
-  </si>
-  <si>
-    <t>Высокоуровневое программирование</t>
-  </si>
-  <si>
-    <t>Б1.В.02</t>
-  </si>
-  <si>
-    <t>Программная инженерия</t>
-  </si>
-  <si>
-    <t>Б1.В.03</t>
-  </si>
-  <si>
-    <t>ERP-системы в управлении бизнесом</t>
-  </si>
-  <si>
-    <t>Б1.В.04</t>
-  </si>
-  <si>
-    <t>Операционные системы</t>
-  </si>
-  <si>
-    <t>Б1.В.05</t>
-  </si>
-  <si>
-    <t>Базы данных</t>
-  </si>
-  <si>
-    <t>71.35</t>
-  </si>
-  <si>
-    <t>72.65</t>
-  </si>
-  <si>
-    <t>Б1.В.06</t>
-  </si>
-  <si>
-    <t>Основы технологии производства продукции растениеводства</t>
-  </si>
-  <si>
-    <t>Б1.В.07</t>
-  </si>
-  <si>
-    <t>Основы  животноводства</t>
-  </si>
-  <si>
-    <t>Б1.В.08</t>
-  </si>
-  <si>
-    <t>Экономическая теория</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Б1.В.09</t>
-  </si>
-  <si>
-    <t>Бухгалтерский учет</t>
-  </si>
-  <si>
-    <t>102.65</t>
-  </si>
-  <si>
-    <t>52.75</t>
-  </si>
-  <si>
-    <t>Б1.В.10</t>
-  </si>
-  <si>
-    <t>Финансы</t>
-  </si>
-  <si>
-    <t>Б1.В.11</t>
-  </si>
-  <si>
-    <t>Статистика</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>123.65</t>
-  </si>
-  <si>
-    <t>67.75</t>
-  </si>
-  <si>
-    <t>Б1.В.12</t>
-  </si>
-  <si>
-    <t>Макроэкономическая статистика</t>
-  </si>
-  <si>
-    <t>Б1.В.13</t>
-  </si>
-  <si>
-    <t>Лабораторный практикум по эконометрике с использованием пакетов прикладных программ</t>
-  </si>
-  <si>
-    <t>34.25</t>
-  </si>
-  <si>
-    <t>Б1.В.14</t>
-  </si>
-  <si>
-    <t>Экономическая безопасность</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Б1.В.15</t>
-  </si>
-  <si>
-    <t>Основы науки о данных (Data Science)</t>
-  </si>
-  <si>
-    <t>Б1.В.16</t>
-  </si>
-  <si>
-    <t>Архитектура информационных систем</t>
-  </si>
-  <si>
-    <t>Б1.В.17</t>
-  </si>
-  <si>
-    <t>Инфокоммуникационные системы и сети</t>
-  </si>
-  <si>
-    <t>Б1.В.18</t>
-  </si>
-  <si>
-    <t>Методы и средства проектирования информационных систем и технологий</t>
-  </si>
-  <si>
-    <t>141.65</t>
-  </si>
-  <si>
-    <t>121.75</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.01</t>
-  </si>
-  <si>
-    <t>Дисциплины (модули) по выбору 1 (ДВ.1)</t>
-  </si>
-  <si>
-    <t>53.35</t>
-  </si>
-  <si>
-    <t>54.65</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.01.01</t>
-  </si>
-  <si>
-    <t>Системное программирование</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.01.02</t>
-  </si>
-  <si>
-    <t>Интернет-программирование</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.02</t>
-  </si>
-  <si>
-    <t>Дисциплины (модули) по выбору 2 (ДВ.2)</t>
-  </si>
-  <si>
-    <t>100.6</t>
-  </si>
-  <si>
-    <t>79.4</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.02.01</t>
-  </si>
-  <si>
-    <t>Анализ экономических данных с использованием современных информационных технологий на иностранном языке</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анализ экономических данных с использованием современных информационных технологий </t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.03</t>
-  </si>
-  <si>
-    <t>Дисциплины (модули) по выбору 3 (ДВ.3)</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.03.01</t>
-  </si>
-  <si>
-    <t>Расчетно-графическая статистика в среде R  на иностранном языке</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.03.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расчетно-графическая статистика в среде R  </t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.04</t>
-  </si>
-  <si>
-    <t>Дисциплины (модули) по выбору 4 (ДВ.4)</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.04.01</t>
-  </si>
-  <si>
-    <t>Анализ банковских данных с использованием пакетов прикладных статистических программ на иностранном языке</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.04.02</t>
-  </si>
-  <si>
-    <t>Анализ банковских данных с использованием пакетов прикладных статистических программ</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.05</t>
-  </si>
-  <si>
-    <t>Дисциплины (модули) по выбору 5 (ДВ.5)</t>
-  </si>
-  <si>
-    <t>100.65</t>
-  </si>
-  <si>
-    <t>54.75</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.05.01</t>
-  </si>
-  <si>
-    <t>Интеллектуальный анализ данных и статистика на иностранном языке</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.05.02</t>
-  </si>
-  <si>
-    <t>Интеллектуальный анализ данных и статистика</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.06</t>
-  </si>
-  <si>
-    <t>Дисциплины (модули) по выбору 6 (ДВ.6)</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.06.01</t>
-  </si>
-  <si>
-    <t>Анализ данных международной статистики с использованием пакетов прикладных программ на иностранном языке</t>
-  </si>
-  <si>
-    <t>Б1.В.ДВ.06.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анализ данных международной статистики с использованием пакетов прикладных программ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок 2.Практика </t>
-  </si>
-  <si>
-    <t>85.33</t>
-  </si>
-  <si>
-    <t>634.67</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>1.33</t>
-  </si>
-  <si>
-    <t>142.67</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>Б2.О.01</t>
-  </si>
-  <si>
-    <t>Б2.О.01.01(У)</t>
-  </si>
-  <si>
-    <t>Ознакомительная практика по стандартам оформления текстовых документов</t>
-  </si>
-  <si>
-    <t>Б2.О.01.02(У)</t>
-  </si>
-  <si>
-    <t>Ознакомительная практика</t>
-  </si>
-  <si>
-    <t>Б2.О.02</t>
-  </si>
-  <si>
-    <t>Б2.О.02.01(П)</t>
-  </si>
-  <si>
-    <t>Технологическая (проектно-технологическая практика)</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>43.33</t>
-  </si>
-  <si>
-    <t>388.67</t>
-  </si>
-  <si>
-    <t>Б2.В.01</t>
-  </si>
-  <si>
-    <t>Б2.В.01.01(У)</t>
-  </si>
-  <si>
-    <t>Ознакомительная практика по технологии производства и хранения продукции животноводства</t>
-  </si>
-  <si>
-    <t>Б2.В.01.02(У)</t>
-  </si>
-  <si>
-    <t>Ознакомительная практика по технологии производства и хранения продукции растениеводства</t>
-  </si>
-  <si>
-    <t>Б2.В.02</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>356.67</t>
-  </si>
-  <si>
-    <t>Б2.В.02.01(П)</t>
-  </si>
-  <si>
-    <t>Б2.В.02.02(П)</t>
-  </si>
-  <si>
-    <t>Научно-исследовательская работа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок 3.Государственная итоговая аттестация </t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>Б3.01(Г)</t>
-  </si>
-  <si>
-    <t>Подготовка к сдаче и сдача государственного экзамена</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>105.5</t>
-  </si>
-  <si>
-    <t>Б3.02(Д)</t>
-  </si>
-  <si>
-    <t>Выполнение и защита выпускной квалификационной работы</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>198.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФТД.Факультативы </t>
-  </si>
-  <si>
-    <t>64.75</t>
-  </si>
-  <si>
-    <t>151.25</t>
-  </si>
-  <si>
-    <t>55.75</t>
-  </si>
-  <si>
-    <t>ФТД.01</t>
-  </si>
-  <si>
-    <t>Защита информации</t>
-  </si>
-  <si>
-    <t>ФТД.02</t>
-  </si>
-  <si>
-    <t>Обработка данных в среде R</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>111.5</t>
-  </si>
-  <si>
-    <t>Б1.А.11</t>
-  </si>
-  <si>
-    <t>Тестовая курсовая работа</t>
   </si>
 </sst>
 </file>
@@ -1393,29 +1393,39 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1423,6 +1433,8 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1545,12 +1557,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -1568,6 +1574,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1883,8 +1895,8 @@
   </sheetPr>
   <dimension ref="A1:DB167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,260 +1913,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17" t="s">
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17" t="s">
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
+      <c r="BS1" s="23"/>
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="23"/>
+      <c r="BV1" s="23"/>
+      <c r="BW1" s="23"/>
+      <c r="BX1" s="23"/>
+      <c r="BY1" s="23"/>
+      <c r="BZ1" s="23"/>
+      <c r="CA1" s="23"/>
+      <c r="CB1" s="23"/>
+      <c r="CC1" s="23"/>
+      <c r="CD1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="17"/>
-      <c r="DB1" s="17" t="s">
+      <c r="CE1" s="23"/>
+      <c r="CF1" s="23"/>
+      <c r="CG1" s="23"/>
+      <c r="CH1" s="23"/>
+      <c r="CI1" s="23"/>
+      <c r="CJ1" s="23"/>
+      <c r="CK1" s="23"/>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="23"/>
+      <c r="CN1" s="23"/>
+      <c r="CO1" s="23"/>
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
+      <c r="CS1" s="23"/>
+      <c r="CT1" s="23"/>
+      <c r="CU1" s="23"/>
+      <c r="CV1" s="23"/>
+      <c r="CW1" s="23"/>
+      <c r="CX1" s="23"/>
+      <c r="CY1" s="23"/>
+      <c r="CZ1" s="23"/>
+      <c r="DA1" s="23"/>
+      <c r="DB1" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17" t="s">
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17" t="s">
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="17"/>
-      <c r="BF2" s="17" t="s">
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="BG2" s="17"/>
-      <c r="BH2" s="17"/>
-      <c r="BI2" s="17"/>
-      <c r="BJ2" s="17"/>
-      <c r="BK2" s="17"/>
-      <c r="BL2" s="17"/>
-      <c r="BM2" s="17"/>
-      <c r="BN2" s="17"/>
-      <c r="BO2" s="17"/>
-      <c r="BP2" s="17"/>
-      <c r="BQ2" s="17" t="s">
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="23"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="23"/>
+      <c r="BO2" s="23"/>
+      <c r="BP2" s="23"/>
+      <c r="BQ2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="BR2" s="17"/>
-      <c r="BS2" s="17"/>
-      <c r="BT2" s="17"/>
-      <c r="BU2" s="17"/>
-      <c r="BV2" s="17"/>
-      <c r="BW2" s="17"/>
-      <c r="BX2" s="17"/>
-      <c r="BY2" s="17"/>
-      <c r="BZ2" s="17"/>
-      <c r="CA2" s="17"/>
-      <c r="CB2" s="17"/>
-      <c r="CC2" s="17"/>
-      <c r="CD2" s="17" t="s">
+      <c r="BR2" s="23"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="23"/>
+      <c r="BY2" s="23"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="23"/>
+      <c r="CB2" s="23"/>
+      <c r="CC2" s="23"/>
+      <c r="CD2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="CE2" s="17"/>
-      <c r="CF2" s="17"/>
-      <c r="CG2" s="17"/>
-      <c r="CH2" s="17"/>
-      <c r="CI2" s="17"/>
-      <c r="CJ2" s="17"/>
-      <c r="CK2" s="17"/>
-      <c r="CL2" s="17"/>
-      <c r="CM2" s="17"/>
-      <c r="CN2" s="17"/>
-      <c r="CO2" s="17" t="s">
+      <c r="CE2" s="23"/>
+      <c r="CF2" s="23"/>
+      <c r="CG2" s="23"/>
+      <c r="CH2" s="23"/>
+      <c r="CI2" s="23"/>
+      <c r="CJ2" s="23"/>
+      <c r="CK2" s="23"/>
+      <c r="CL2" s="23"/>
+      <c r="CM2" s="23"/>
+      <c r="CN2" s="23"/>
+      <c r="CO2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="CP2" s="17"/>
-      <c r="CQ2" s="17"/>
-      <c r="CR2" s="17"/>
-      <c r="CS2" s="17"/>
-      <c r="CT2" s="17"/>
-      <c r="CU2" s="17"/>
-      <c r="CV2" s="17"/>
-      <c r="CW2" s="17"/>
-      <c r="CX2" s="17"/>
-      <c r="CY2" s="17"/>
-      <c r="CZ2" s="17"/>
-      <c r="DA2" s="17"/>
-      <c r="DB2" s="17"/>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="23"/>
+      <c r="CU2" s="23"/>
+      <c r="CV2" s="23"/>
+      <c r="CW2" s="23"/>
+      <c r="CX2" s="23"/>
+      <c r="CY2" s="23"/>
+      <c r="CZ2" s="23"/>
+      <c r="DA2" s="23"/>
+      <c r="DB2" s="23"/>
     </row>
     <row r="3" spans="1:106" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2477,16 +2489,16 @@
       </c>
     </row>
     <row r="4" spans="1:106" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="4" t="s">
         <v>85</v>
       </c>
@@ -2749,16 +2761,16 @@
       <c r="DB4" s="6"/>
     </row>
     <row r="5" spans="1:106" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="4" t="s">
         <v>123</v>
       </c>
@@ -3306,7 +3318,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>172</v>
+        <v>451</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -3327,16 +3339,16 @@
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>158</v>
@@ -3346,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -3359,7 +3371,7 @@
         <v>170</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7" t="s">
@@ -3379,7 +3391,7 @@
         <v>170</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK8" s="7"/>
       <c r="AL8" s="7" t="s">
@@ -3401,7 +3413,7 @@
         <v>164</v>
       </c>
       <c r="AT8" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AU8" s="7" t="s">
         <v>158</v>
@@ -3473,10 +3485,10 @@
         <v>159</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
@@ -3501,10 +3513,10 @@
         <v>167</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="10"/>
@@ -3537,7 +3549,7 @@
         <v>170</v>
       </c>
       <c r="AJ9" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
@@ -3609,7 +3621,7 @@
       <c r="CZ9" s="10"/>
       <c r="DA9" s="7"/>
       <c r="DB9" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.25">
@@ -3617,10 +3629,10 @@
         <v>159</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
@@ -3639,16 +3651,16 @@
         <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="10"/>
@@ -3656,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>16</v>
@@ -3671,7 +3683,7 @@
         <v>170</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
@@ -3761,13 +3773,13 @@
         <v>159</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>3</v>
@@ -3785,13 +3797,13 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>154</v>
@@ -3845,7 +3857,7 @@
         <v>170</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK11" s="11"/>
       <c r="AL11" s="7" t="s">
@@ -3859,20 +3871,20 @@
       </c>
       <c r="AO11" s="11"/>
       <c r="AP11" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AQ11" s="11"/>
       <c r="AR11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="AS11" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT11" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="AT11" s="11" t="s">
+      <c r="AU11" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="AV11" s="7" t="s">
         <v>5</v>
@@ -3955,10 +3967,10 @@
         <v>159</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
@@ -3983,7 +3995,7 @@
         <v>118</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>36</v>
@@ -4105,10 +4117,10 @@
         <v>159</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
@@ -4135,13 +4147,13 @@
         <v>93</v>
       </c>
       <c r="N13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="P13" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="R13" s="3"/>
@@ -4173,7 +4185,7 @@
         <v>170</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3" t="s">
@@ -4197,10 +4209,10 @@
         <v>164</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
@@ -4269,10 +4281,10 @@
         <v>159</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4297,10 +4309,10 @@
         <v>167</v>
       </c>
       <c r="N14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="15"/>
@@ -4340,10 +4352,10 @@
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
       <c r="AS14" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT14" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
@@ -4413,10 +4425,10 @@
         <v>159</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
@@ -4441,7 +4453,7 @@
         <v>118</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>36</v>
@@ -4555,7 +4567,7 @@
       <c r="CZ15" s="15"/>
       <c r="DA15" s="3"/>
       <c r="DB15" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.25">
@@ -4563,10 +4575,10 @@
         <v>159</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
@@ -4591,10 +4603,10 @@
         <v>118</v>
       </c>
       <c r="N16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>158</v>
@@ -4662,7 +4674,7 @@
         <v>164</v>
       </c>
       <c r="BO16" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BP16" s="7" t="s">
         <v>158</v>
@@ -4713,10 +4725,10 @@
         <v>159</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>3</v>
@@ -4741,7 +4753,7 @@
         <v>118</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>32</v>
@@ -4863,10 +4875,10 @@
         <v>159</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2</v>
@@ -4885,16 +4897,16 @@
         <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>158</v>
@@ -4904,7 +4916,7 @@
         <v>6</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>16</v>
@@ -4921,7 +4933,7 @@
         <v>164</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>158</v>
@@ -5013,10 +5025,10 @@
         <v>159</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
@@ -5043,7 +5055,7 @@
         <v>118</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>33</v>
@@ -5162,147 +5174,147 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:106" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>450</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>451</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="N20" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="O20" s="19" t="s">
+      <c r="N20" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="O20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="19" t="s">
+      <c r="P20" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="19"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="19"/>
-      <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="19"/>
-      <c r="AU20" s="19"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
-      <c r="BE20" s="19"/>
-      <c r="BF20" s="19"/>
-      <c r="BG20" s="19"/>
-      <c r="BH20" s="19"/>
-      <c r="BI20" s="19"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="23"/>
-      <c r="BL20" s="19"/>
-      <c r="BM20" s="19"/>
-      <c r="BN20" s="19"/>
-      <c r="BO20" s="19"/>
-      <c r="BP20" s="19"/>
-      <c r="BQ20" s="19"/>
-      <c r="BR20" s="19"/>
-      <c r="BS20" s="19"/>
-      <c r="BT20" s="19"/>
-      <c r="BU20" s="19"/>
-      <c r="BV20" s="23"/>
-      <c r="BW20" s="19"/>
-      <c r="BX20" s="19"/>
-      <c r="BY20" s="23"/>
-      <c r="BZ20" s="19"/>
-      <c r="CA20" s="19"/>
-      <c r="CB20" s="23"/>
-      <c r="CC20" s="19"/>
-      <c r="CD20" s="19"/>
-      <c r="CE20" s="19"/>
-      <c r="CF20" s="19"/>
-      <c r="CG20" s="19"/>
-      <c r="CH20" s="19"/>
-      <c r="CI20" s="23"/>
-      <c r="CJ20" s="19"/>
-      <c r="CK20" s="19"/>
-      <c r="CL20" s="19"/>
-      <c r="CM20" s="19"/>
-      <c r="CN20" s="19"/>
-      <c r="CO20" s="19"/>
-      <c r="CP20" s="19"/>
-      <c r="CQ20" s="19"/>
-      <c r="CR20" s="19"/>
-      <c r="CS20" s="19"/>
-      <c r="CT20" s="23"/>
-      <c r="CU20" s="19"/>
-      <c r="CV20" s="19"/>
-      <c r="CW20" s="23"/>
-      <c r="CX20" s="19"/>
-      <c r="CY20" s="19"/>
-      <c r="CZ20" s="23"/>
-      <c r="DA20" s="19"/>
-      <c r="DB20" s="19"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="17"/>
+      <c r="BI20" s="17"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="21"/>
+      <c r="BL20" s="17"/>
+      <c r="BM20" s="17"/>
+      <c r="BN20" s="17"/>
+      <c r="BO20" s="17"/>
+      <c r="BP20" s="17"/>
+      <c r="BQ20" s="17"/>
+      <c r="BR20" s="17"/>
+      <c r="BS20" s="17"/>
+      <c r="BT20" s="17"/>
+      <c r="BU20" s="17"/>
+      <c r="BV20" s="21"/>
+      <c r="BW20" s="17"/>
+      <c r="BX20" s="17"/>
+      <c r="BY20" s="21"/>
+      <c r="BZ20" s="17"/>
+      <c r="CA20" s="17"/>
+      <c r="CB20" s="21"/>
+      <c r="CC20" s="17"/>
+      <c r="CD20" s="17"/>
+      <c r="CE20" s="17"/>
+      <c r="CF20" s="17"/>
+      <c r="CG20" s="17"/>
+      <c r="CH20" s="17"/>
+      <c r="CI20" s="21"/>
+      <c r="CJ20" s="17"/>
+      <c r="CK20" s="17"/>
+      <c r="CL20" s="17"/>
+      <c r="CM20" s="17"/>
+      <c r="CN20" s="17"/>
+      <c r="CO20" s="17"/>
+      <c r="CP20" s="17"/>
+      <c r="CQ20" s="17"/>
+      <c r="CR20" s="17"/>
+      <c r="CS20" s="17"/>
+      <c r="CT20" s="21"/>
+      <c r="CU20" s="17"/>
+      <c r="CV20" s="17"/>
+      <c r="CW20" s="21"/>
+      <c r="CX20" s="17"/>
+      <c r="CY20" s="17"/>
+      <c r="CZ20" s="21"/>
+      <c r="DA20" s="17"/>
+      <c r="DB20" s="17"/>
     </row>
     <row r="21" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
@@ -5323,16 +5335,16 @@
         <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>158</v>
@@ -5352,7 +5364,7 @@
         <v>6</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD21" s="7" t="s">
         <v>18</v>
@@ -5371,7 +5383,7 @@
         <v>164</v>
       </c>
       <c r="AJ21" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AK21" s="7" t="s">
         <v>158</v>
@@ -5453,10 +5465,10 @@
         <v>159</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
@@ -5481,7 +5493,7 @@
         <v>118</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>36</v>
@@ -5603,10 +5615,10 @@
         <v>159</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
@@ -5631,10 +5643,10 @@
         <v>167</v>
       </c>
       <c r="N23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="10"/>
@@ -5734,7 +5746,7 @@
         <v>170</v>
       </c>
       <c r="CY23" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CZ23" s="10"/>
       <c r="DA23" s="7"/>
@@ -5747,10 +5759,10 @@
         <v>159</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>237</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
@@ -5778,7 +5790,7 @@
         <v>168</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="10"/>
@@ -5866,7 +5878,7 @@
         <v>170</v>
       </c>
       <c r="CM24" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="CN24" s="7"/>
       <c r="CO24" s="7"/>
@@ -5891,10 +5903,10 @@
         <v>159</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
@@ -5913,16 +5925,16 @@
         <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>158</v>
@@ -5996,7 +6008,7 @@
         <v>6</v>
       </c>
       <c r="CE25" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="CF25" s="7" t="s">
         <v>29</v>
@@ -6014,7 +6026,7 @@
         <v>164</v>
       </c>
       <c r="CM25" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CN25" s="7" t="s">
         <v>158</v>
@@ -6041,10 +6053,10 @@
         <v>159</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
@@ -6069,10 +6081,10 @@
         <v>118</v>
       </c>
       <c r="N26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>158</v>
@@ -6176,14 +6188,14 @@
         <v>164</v>
       </c>
       <c r="CY26" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CZ26" s="10"/>
       <c r="DA26" s="7" t="s">
         <v>158</v>
       </c>
       <c r="DB26" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:106" x14ac:dyDescent="0.25">
@@ -6191,10 +6203,10 @@
         <v>159</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>247</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -6219,10 +6231,10 @@
         <v>118</v>
       </c>
       <c r="N27" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>158</v>
@@ -6302,7 +6314,7 @@
         <v>164</v>
       </c>
       <c r="CA27" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="CB27" s="10"/>
       <c r="CC27" s="7" t="s">
@@ -6333,7 +6345,7 @@
       <c r="CZ27" s="10"/>
       <c r="DA27" s="7"/>
       <c r="DB27" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:106" x14ac:dyDescent="0.25">
@@ -6341,10 +6353,10 @@
         <v>159</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -6369,10 +6381,10 @@
         <v>118</v>
       </c>
       <c r="N28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="10"/>
@@ -6422,10 +6434,10 @@
       <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
       <c r="BC28" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BD28" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BE28" s="7"/>
       <c r="BF28" s="7"/>
@@ -6485,10 +6497,10 @@
         <v>159</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>2</v>
@@ -6513,10 +6525,10 @@
         <v>118</v>
       </c>
       <c r="N29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>158</v>
@@ -6543,7 +6555,7 @@
         <v>164</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>158</v>
@@ -6635,10 +6647,10 @@
         <v>159</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -6779,10 +6791,10 @@
         <v>159</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
@@ -6801,16 +6813,16 @@
         <v>30</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="10"/>
@@ -6818,7 +6830,7 @@
         <v>3</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>16</v>
@@ -6833,7 +6845,7 @@
         <v>170</v>
       </c>
       <c r="Z31" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
@@ -6923,10 +6935,10 @@
         <v>159</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
@@ -6945,16 +6957,16 @@
         <v>30</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="10"/>
@@ -6972,7 +6984,7 @@
         <v>3</v>
       </c>
       <c r="AC32" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
@@ -6985,7 +6997,7 @@
         <v>170</v>
       </c>
       <c r="AJ32" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
@@ -7057,7 +7069,7 @@
       <c r="CZ32" s="10"/>
       <c r="DA32" s="7"/>
       <c r="DB32" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:106" x14ac:dyDescent="0.25">
@@ -7065,10 +7077,10 @@
         <v>159</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
@@ -7093,10 +7105,10 @@
         <v>167</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="10"/>
@@ -7172,7 +7184,7 @@
         <v>170</v>
       </c>
       <c r="CA33" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="CB33" s="10"/>
       <c r="CC33" s="7"/>
@@ -7209,10 +7221,10 @@
         <v>159</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
@@ -7353,10 +7365,10 @@
         <v>159</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -7381,7 +7393,7 @@
         <v>118</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>36</v>
@@ -7495,7 +7507,7 @@
       <c r="CZ35" s="10"/>
       <c r="DA35" s="7"/>
       <c r="DB35" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:106" x14ac:dyDescent="0.25">
@@ -7503,10 +7515,10 @@
         <v>159</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>5</v>
@@ -7531,7 +7543,7 @@
         <v>118</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>36</v>
@@ -7653,10 +7665,10 @@
         <v>159</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>5</v>
@@ -7681,7 +7693,7 @@
         <v>118</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>36</v>
@@ -7803,10 +7815,10 @@
         <v>159</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -7831,10 +7843,10 @@
         <v>167</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="10"/>
@@ -7919,10 +7931,10 @@
       <c r="CJ38" s="7"/>
       <c r="CK38" s="7"/>
       <c r="CL38" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CM38" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CN38" s="7"/>
       <c r="CO38" s="7"/>
@@ -7939,7 +7951,7 @@
       <c r="CZ38" s="10"/>
       <c r="DA38" s="7"/>
       <c r="DB38" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:106" x14ac:dyDescent="0.25">
@@ -7947,10 +7959,10 @@
         <v>159</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>8</v>
@@ -7975,10 +7987,10 @@
         <v>118</v>
       </c>
       <c r="N39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>158</v>
@@ -8070,7 +8082,7 @@
         <v>164</v>
       </c>
       <c r="CM39" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="CN39" s="7" t="s">
         <v>158</v>
@@ -8097,10 +8109,10 @@
         <v>159</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>281</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -8211,14 +8223,14 @@
         <v>46</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -8227,13 +8239,13 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -8268,12 +8280,12 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
       <c r="AM41" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
@@ -8282,12 +8294,12 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
       <c r="AW41" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AX41" s="3"/>
       <c r="AY41" s="3"/>
       <c r="AZ41" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BA41" s="3"/>
       <c r="BB41" s="3"/>
@@ -8296,12 +8308,12 @@
       <c r="BE41" s="3"/>
       <c r="BF41" s="3"/>
       <c r="BG41" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BH41" s="3"/>
       <c r="BI41" s="3"/>
       <c r="BJ41" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK41" s="15"/>
       <c r="BL41" s="3"/>
@@ -8311,12 +8323,12 @@
       <c r="BP41" s="3"/>
       <c r="BQ41" s="3"/>
       <c r="BR41" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BS41" s="3"/>
       <c r="BT41" s="3"/>
       <c r="BU41" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BV41" s="15"/>
       <c r="BW41" s="3"/>
@@ -8359,14 +8371,14 @@
         <v>46</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>287</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -8375,13 +8387,13 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -8416,12 +8428,12 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
       <c r="AM42" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
@@ -8430,12 +8442,12 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
       <c r="AW42" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AX42" s="3"/>
       <c r="AY42" s="3"/>
       <c r="AZ42" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BA42" s="3"/>
       <c r="BB42" s="3"/>
@@ -8444,12 +8456,12 @@
       <c r="BE42" s="3"/>
       <c r="BF42" s="3"/>
       <c r="BG42" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BK42" s="15"/>
       <c r="BL42" s="3"/>
@@ -8459,12 +8471,12 @@
       <c r="BP42" s="3"/>
       <c r="BQ42" s="3"/>
       <c r="BR42" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BS42" s="3"/>
       <c r="BT42" s="3"/>
       <c r="BU42" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BV42" s="15"/>
       <c r="BW42" s="3"/>
@@ -8503,37 +8515,37 @@
       </c>
     </row>
     <row r="43" spans="1:106" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="A43" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="P43" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>90</v>
@@ -8542,14 +8554,14 @@
         <v>6</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>29</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4" t="s">
@@ -8559,7 +8571,7 @@
         <v>156</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA43" s="4" t="s">
         <v>158</v>
@@ -8580,17 +8592,17 @@
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ43" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="AJ43" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="AK43" s="4"/>
       <c r="AL43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AM43" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN43" s="4" t="s">
         <v>145</v>
@@ -8609,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="AT43" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AU43" s="4" t="s">
         <v>158</v>
@@ -8637,7 +8649,7 @@
         <v>2</v>
       </c>
       <c r="BD43" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BE43" s="4" t="s">
         <v>158</v>
@@ -8649,7 +8661,7 @@
         <v>140</v>
       </c>
       <c r="BH43" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BI43" s="4"/>
       <c r="BJ43" s="4" t="s">
@@ -8663,13 +8675,13 @@
         <v>5</v>
       </c>
       <c r="BN43" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="BO43" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="BO43" s="4" t="s">
+      <c r="BP43" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="BP43" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="BQ43" s="4" t="s">
         <v>16</v>
@@ -8678,7 +8690,7 @@
         <v>140</v>
       </c>
       <c r="BS43" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BT43" s="4"/>
       <c r="BU43" s="4" t="s">
@@ -8695,10 +8707,10 @@
       </c>
       <c r="BY43" s="4"/>
       <c r="BZ43" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="CA43" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="CB43" s="4"/>
       <c r="CC43" s="4" t="s">
@@ -8727,10 +8739,10 @@
         <v>5</v>
       </c>
       <c r="CL43" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="CM43" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="CM43" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="CN43" s="4" t="s">
         <v>149</v>
@@ -8739,14 +8751,14 @@
         <v>14</v>
       </c>
       <c r="CP43" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CQ43" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="CR43" s="4"/>
       <c r="CS43" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CT43" s="4" t="s">
         <v>20</v>
@@ -8760,7 +8772,7 @@
         <v>142</v>
       </c>
       <c r="CY43" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="CZ43" s="4"/>
       <c r="DA43" s="4" t="s">
@@ -8773,10 +8785,10 @@
         <v>159</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
@@ -8801,10 +8813,10 @@
         <v>167</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="10"/>
@@ -8847,7 +8859,7 @@
         <v>170</v>
       </c>
       <c r="AT44" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AU44" s="7"/>
       <c r="AV44" s="7"/>
@@ -8917,10 +8929,10 @@
         <v>159</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>311</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -8945,7 +8957,7 @@
         <v>167</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>26</v>
@@ -9071,10 +9083,10 @@
         <v>159</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -9099,7 +9111,7 @@
         <v>167</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>28</v>
@@ -9225,10 +9237,10 @@
         <v>159</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
@@ -9253,7 +9265,7 @@
         <v>167</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>26</v>
@@ -9375,10 +9387,10 @@
         <v>159</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -9405,10 +9417,10 @@
         <v>118</v>
       </c>
       <c r="N48" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="O48" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="10"/>
@@ -9460,10 +9472,10 @@
       </c>
       <c r="BB48" s="7"/>
       <c r="BC48" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BD48" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BE48" s="7"/>
       <c r="BF48" s="7"/>
@@ -9523,10 +9535,10 @@
         <v>159</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
@@ -9545,16 +9557,16 @@
         <v>30</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="10"/>
@@ -9572,7 +9584,7 @@
         <v>3</v>
       </c>
       <c r="AC49" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD49" s="7" t="s">
         <v>18</v>
@@ -9587,7 +9599,7 @@
         <v>170</v>
       </c>
       <c r="AJ49" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
@@ -9667,10 +9679,10 @@
         <v>159</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
@@ -9689,16 +9701,16 @@
         <v>30</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="10"/>
@@ -9716,7 +9728,7 @@
         <v>3</v>
       </c>
       <c r="AC50" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD50" s="7" t="s">
         <v>18</v>
@@ -9731,7 +9743,7 @@
         <v>170</v>
       </c>
       <c r="AJ50" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AK50" s="7"/>
       <c r="AL50" s="7"/>
@@ -9811,10 +9823,10 @@
         <v>159</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>2</v>
@@ -9839,7 +9851,7 @@
         <v>167</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>14</v>
@@ -9953,7 +9965,7 @@
       <c r="CZ51" s="10"/>
       <c r="DA51" s="7"/>
       <c r="DB51" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:106" x14ac:dyDescent="0.25">
@@ -9961,10 +9973,10 @@
         <v>159</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>328</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>329</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>7</v>
@@ -9985,16 +9997,16 @@
         <v>30</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N52" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="O52" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>158</v>
@@ -10046,7 +10058,7 @@
         <v>3</v>
       </c>
       <c r="BG52" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BH52" s="7" t="s">
         <v>16</v>
@@ -10064,7 +10076,7 @@
         <v>170</v>
       </c>
       <c r="BO52" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BP52" s="7"/>
       <c r="BQ52" s="7" t="s">
@@ -10131,10 +10143,10 @@
         <v>159</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>333</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
@@ -10159,10 +10171,10 @@
         <v>167</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="10" t="s">
@@ -10242,7 +10254,7 @@
         <v>170</v>
       </c>
       <c r="CA53" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="CB53" s="10"/>
       <c r="CC53" s="7"/>
@@ -10271,7 +10283,7 @@
       <c r="CZ53" s="10"/>
       <c r="DA53" s="7"/>
       <c r="DB53" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:106" x14ac:dyDescent="0.25">
@@ -10279,10 +10291,10 @@
         <v>159</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>8</v>
@@ -10305,16 +10317,16 @@
         <v>30</v>
       </c>
       <c r="L54" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="N54" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="M54" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="N54" s="7" t="s">
+      <c r="O54" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>158</v>
@@ -10377,7 +10389,7 @@
         <v>3</v>
       </c>
       <c r="BR54" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BS54" s="7" t="s">
         <v>16</v>
@@ -10396,7 +10408,7 @@
         <v>170</v>
       </c>
       <c r="CA54" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CB54" s="10"/>
       <c r="CC54" s="7"/>
@@ -10445,7 +10457,7 @@
       <c r="CZ54" s="10"/>
       <c r="DA54" s="7"/>
       <c r="DB54" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:106" x14ac:dyDescent="0.25">
@@ -10453,10 +10465,10 @@
         <v>159</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
@@ -10475,16 +10487,16 @@
         <v>30</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="10" t="s">
@@ -10569,7 +10581,7 @@
         <v>3</v>
       </c>
       <c r="CP55" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CQ55" s="7" t="s">
         <v>13</v>
@@ -10588,12 +10600,12 @@
         <v>170</v>
       </c>
       <c r="CY55" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CZ55" s="10"/>
       <c r="DA55" s="7"/>
       <c r="DB55" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:106" ht="31.5" x14ac:dyDescent="0.25">
@@ -10601,10 +10613,10 @@
         <v>159</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
@@ -10623,16 +10635,16 @@
         <v>30</v>
       </c>
       <c r="L56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="O56" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="10" t="s">
@@ -10706,7 +10718,7 @@
         <v>3</v>
       </c>
       <c r="CE56" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CF56" s="7"/>
       <c r="CG56" s="7"/>
@@ -10722,7 +10734,7 @@
         <v>170</v>
       </c>
       <c r="CM56" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CN56" s="7"/>
       <c r="CO56" s="7"/>
@@ -10739,7 +10751,7 @@
       <c r="CZ56" s="10"/>
       <c r="DA56" s="7"/>
       <c r="DB56" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:106" x14ac:dyDescent="0.25">
@@ -10747,10 +10759,10 @@
         <v>159</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>344</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
@@ -10769,16 +10781,16 @@
         <v>30</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="10" t="s">
@@ -10863,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="CP57" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CQ57" s="7" t="s">
         <v>13</v>
@@ -10882,12 +10894,12 @@
         <v>170</v>
       </c>
       <c r="CY57" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CZ57" s="10"/>
       <c r="DA57" s="7"/>
       <c r="DB57" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:106" x14ac:dyDescent="0.25">
@@ -10895,10 +10907,10 @@
         <v>159</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>348</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
@@ -10917,16 +10929,16 @@
         <v>30</v>
       </c>
       <c r="L58" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="O58" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="10"/>
@@ -10934,7 +10946,7 @@
         <v>3</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
@@ -10947,7 +10959,7 @@
         <v>170</v>
       </c>
       <c r="Z58" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
@@ -11029,7 +11041,7 @@
       <c r="CZ58" s="10"/>
       <c r="DA58" s="7"/>
       <c r="DB58" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:106" x14ac:dyDescent="0.25">
@@ -11037,10 +11049,10 @@
         <v>159</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
@@ -11059,16 +11071,16 @@
         <v>30</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>158</v>
@@ -11108,7 +11120,7 @@
         <v>6</v>
       </c>
       <c r="AW59" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AX59" s="7" t="s">
         <v>29</v>
@@ -11125,7 +11137,7 @@
         <v>164</v>
       </c>
       <c r="BD59" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BE59" s="7" t="s">
         <v>158</v>
@@ -11187,10 +11199,10 @@
         <v>159</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>352</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>6</v>
@@ -11209,19 +11221,19 @@
         <v>30</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>90</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q60" s="10" t="s">
         <v>5</v>
@@ -11270,7 +11282,7 @@
         <v>6</v>
       </c>
       <c r="BG60" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BH60" s="7" t="s">
         <v>29</v>
@@ -11293,7 +11305,7 @@
         <v>90</v>
       </c>
       <c r="BP60" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BQ60" s="7"/>
       <c r="BR60" s="7"/>
@@ -11341,10 +11353,10 @@
         <v>159</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>7</v>
@@ -11373,10 +11385,10 @@
         <v>93</v>
       </c>
       <c r="N61" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="O61" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>158</v>
@@ -11446,14 +11458,14 @@
         <v>170</v>
       </c>
       <c r="BO61" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BP61" s="7"/>
       <c r="BQ61" s="7" t="s">
         <v>6</v>
       </c>
       <c r="BR61" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BS61" s="7" t="s">
         <v>29</v>
@@ -11515,10 +11527,10 @@
         <v>159</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>358</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
@@ -11543,10 +11555,10 @@
         <v>167</v>
       </c>
       <c r="N62" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="O62" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>360</v>
       </c>
       <c r="P62" s="11"/>
       <c r="Q62" s="14"/>
@@ -11588,10 +11600,10 @@
       </c>
       <c r="AR62" s="11"/>
       <c r="AS62" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT62" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AU62" s="11"/>
       <c r="AV62" s="7"/>
@@ -11659,10 +11671,10 @@
         <v>159</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -11689,10 +11701,10 @@
         <v>167</v>
       </c>
       <c r="N63" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="O63" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="P63" s="3"/>
       <c r="Q63" s="15"/>
@@ -11734,10 +11746,10 @@
       </c>
       <c r="AR63" s="3"/>
       <c r="AS63" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT63" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
@@ -11807,10 +11819,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -11837,10 +11849,10 @@
         <v>167</v>
       </c>
       <c r="N64" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="O64" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="15"/>
@@ -11882,10 +11894,10 @@
       </c>
       <c r="AR64" s="3"/>
       <c r="AS64" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT64" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
@@ -11955,10 +11967,10 @@
         <v>159</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>366</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13" t="s">
@@ -11977,16 +11989,16 @@
       </c>
       <c r="K65" s="7"/>
       <c r="L65" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N65" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="O65" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="O65" s="11" t="s">
-        <v>368</v>
       </c>
       <c r="P65" s="11"/>
       <c r="Q65" s="14" t="s">
@@ -12026,7 +12038,7 @@
         <v>3</v>
       </c>
       <c r="AW65" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AX65" s="11" t="s">
         <v>16</v>
@@ -12041,7 +12053,7 @@
         <v>170</v>
       </c>
       <c r="BD65" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BE65" s="11"/>
       <c r="BF65" s="7" t="s">
@@ -12063,10 +12075,10 @@
       <c r="BL65" s="11"/>
       <c r="BM65" s="11"/>
       <c r="BN65" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BO65" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BP65" s="11"/>
       <c r="BQ65" s="7"/>
@@ -12113,10 +12125,10 @@
         <v>159</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
@@ -12137,16 +12149,16 @@
         <v>30</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="O66" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="15" t="s">
@@ -12186,7 +12198,7 @@
         <v>3</v>
       </c>
       <c r="AW66" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AX66" s="3" t="s">
         <v>16</v>
@@ -12201,7 +12213,7 @@
         <v>170</v>
       </c>
       <c r="BD66" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BE66" s="3"/>
       <c r="BF66" s="3" t="s">
@@ -12223,10 +12235,10 @@
       <c r="BL66" s="3"/>
       <c r="BM66" s="3"/>
       <c r="BN66" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BO66" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BP66" s="3"/>
       <c r="BQ66" s="3"/>
@@ -12267,7 +12279,7 @@
       <c r="CZ66" s="15"/>
       <c r="DA66" s="3"/>
       <c r="DB66" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:106" ht="31.5" x14ac:dyDescent="0.25">
@@ -12275,10 +12287,10 @@
         <v>46</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
@@ -12299,16 +12311,16 @@
         <v>30</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N67" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="O67" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="15" t="s">
@@ -12348,7 +12360,7 @@
         <v>3</v>
       </c>
       <c r="AW67" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AX67" s="3" t="s">
         <v>16</v>
@@ -12363,7 +12375,7 @@
         <v>170</v>
       </c>
       <c r="BD67" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BE67" s="3"/>
       <c r="BF67" s="3" t="s">
@@ -12385,10 +12397,10 @@
       <c r="BL67" s="3"/>
       <c r="BM67" s="3"/>
       <c r="BN67" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BO67" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BP67" s="3"/>
       <c r="BQ67" s="3"/>
@@ -12429,7 +12441,7 @@
       <c r="CZ67" s="15"/>
       <c r="DA67" s="3"/>
       <c r="DB67" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:106" ht="21" x14ac:dyDescent="0.25">
@@ -12437,10 +12449,10 @@
         <v>159</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>374</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -12463,10 +12475,10 @@
         <v>167</v>
       </c>
       <c r="N68" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O68" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="P68" s="11"/>
       <c r="Q68" s="14" t="s">
@@ -12543,10 +12555,10 @@
       <c r="BX68" s="11"/>
       <c r="BY68" s="14"/>
       <c r="BZ68" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CA68" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CB68" s="14"/>
       <c r="CC68" s="11"/>
@@ -12581,10 +12593,10 @@
         <v>159</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>376</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -12609,10 +12621,10 @@
         <v>167</v>
       </c>
       <c r="N69" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O69" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="P69" s="3"/>
       <c r="Q69" s="15" t="s">
@@ -12689,10 +12701,10 @@
       <c r="BX69" s="3"/>
       <c r="BY69" s="15"/>
       <c r="BZ69" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CA69" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CB69" s="15"/>
       <c r="CC69" s="3"/>
@@ -12721,7 +12733,7 @@
       <c r="CZ69" s="15"/>
       <c r="DA69" s="3"/>
       <c r="DB69" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:106" x14ac:dyDescent="0.25">
@@ -12729,10 +12741,10 @@
         <v>46</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>378</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -12757,10 +12769,10 @@
         <v>167</v>
       </c>
       <c r="N70" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="15" t="s">
@@ -12837,10 +12849,10 @@
       <c r="BX70" s="3"/>
       <c r="BY70" s="15"/>
       <c r="BZ70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CA70" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CB70" s="15"/>
       <c r="CC70" s="3"/>
@@ -12869,7 +12881,7 @@
       <c r="CZ70" s="15"/>
       <c r="DA70" s="3"/>
       <c r="DB70" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:106" ht="21" x14ac:dyDescent="0.25">
@@ -12877,10 +12889,10 @@
         <v>159</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>379</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>8</v>
@@ -12903,7 +12915,7 @@
         <v>167</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="11" t="s">
         <v>26</v>
@@ -13027,10 +13039,10 @@
         <v>159</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>8</v>
@@ -13055,7 +13067,7 @@
         <v>167</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>26</v>
@@ -13173,7 +13185,7 @@
       <c r="CZ72" s="15"/>
       <c r="DA72" s="3"/>
       <c r="DB72" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:106" ht="31.5" x14ac:dyDescent="0.25">
@@ -13181,10 +13193,10 @@
         <v>46</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>8</v>
@@ -13209,7 +13221,7 @@
         <v>167</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>26</v>
@@ -13327,7 +13339,7 @@
       <c r="CZ73" s="15"/>
       <c r="DA73" s="3"/>
       <c r="DB73" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:106" ht="21" x14ac:dyDescent="0.25">
@@ -13335,10 +13347,10 @@
         <v>159</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>386</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>9</v>
@@ -13357,16 +13369,16 @@
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N74" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O74" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="O74" s="11" t="s">
-        <v>388</v>
       </c>
       <c r="P74" s="11" t="s">
         <v>158</v>
@@ -13442,7 +13454,7 @@
         <v>3</v>
       </c>
       <c r="CE74" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CF74" s="11" t="s">
         <v>16</v>
@@ -13460,7 +13472,7 @@
         <v>170</v>
       </c>
       <c r="CM74" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CN74" s="11"/>
       <c r="CO74" s="7" t="s">
@@ -13501,10 +13513,10 @@
         <v>159</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>9</v>
@@ -13525,16 +13537,16 @@
         <v>30</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N75" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>158</v>
@@ -13610,7 +13622,7 @@
         <v>3</v>
       </c>
       <c r="CE75" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CF75" s="3" t="s">
         <v>16</v>
@@ -13628,7 +13640,7 @@
         <v>170</v>
       </c>
       <c r="CM75" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CN75" s="3"/>
       <c r="CO75" s="3" t="s">
@@ -13663,7 +13675,7 @@
         <v>158</v>
       </c>
       <c r="DB75" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:106" ht="21" x14ac:dyDescent="0.25">
@@ -13671,10 +13683,10 @@
         <v>46</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>9</v>
@@ -13695,16 +13707,16 @@
         <v>30</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N76" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="O76" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>158</v>
@@ -13780,7 +13792,7 @@
         <v>3</v>
       </c>
       <c r="CE76" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CF76" s="3" t="s">
         <v>16</v>
@@ -13798,7 +13810,7 @@
         <v>170</v>
       </c>
       <c r="CM76" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CN76" s="3"/>
       <c r="CO76" s="3" t="s">
@@ -13833,7 +13845,7 @@
         <v>158</v>
       </c>
       <c r="DB76" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:106" ht="21" x14ac:dyDescent="0.25">
@@ -13841,10 +13853,10 @@
         <v>159</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C77" s="12" t="s">
         <v>393</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>394</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
@@ -13867,10 +13879,10 @@
         <v>167</v>
       </c>
       <c r="N77" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="O77" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="O77" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="P77" s="11"/>
       <c r="Q77" s="14" t="s">
@@ -13974,7 +13986,7 @@
         <v>170</v>
       </c>
       <c r="CY77" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CZ77" s="14"/>
       <c r="DA77" s="11"/>
@@ -13985,10 +13997,10 @@
         <v>159</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
@@ -14013,10 +14025,10 @@
         <v>167</v>
       </c>
       <c r="N78" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="15" t="s">
@@ -14120,12 +14132,12 @@
         <v>170</v>
       </c>
       <c r="CY78" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CZ78" s="15"/>
       <c r="DA78" s="3"/>
       <c r="DB78" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:106" ht="31.5" x14ac:dyDescent="0.25">
@@ -14133,10 +14145,10 @@
         <v>46</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
@@ -14161,10 +14173,10 @@
         <v>167</v>
       </c>
       <c r="N79" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O79" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="15" t="s">
@@ -14268,25 +14280,25 @@
         <v>170</v>
       </c>
       <c r="CY79" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CZ79" s="15"/>
       <c r="DA79" s="3"/>
       <c r="DB79" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:106" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="A80" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
       <c r="I80" s="4" t="s">
         <v>20</v>
       </c>
@@ -14301,14 +14313,14 @@
         <v>117</v>
       </c>
       <c r="N80" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="O80" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="P80" s="4"/>
       <c r="Q80" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
@@ -14329,13 +14341,13 @@
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
       <c r="AF80" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG80" s="4"/>
       <c r="AH80" s="4"/>
       <c r="AI80" s="4"/>
       <c r="AJ80" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
@@ -14352,7 +14364,7 @@
         <v>7</v>
       </c>
       <c r="AW80" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AX80" s="4"/>
       <c r="AY80" s="4"/>
@@ -14363,7 +14375,7 @@
       </c>
       <c r="BC80" s="4"/>
       <c r="BD80" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BE80" s="4"/>
       <c r="BF80" s="4"/>
@@ -14381,7 +14393,7 @@
         <v>7</v>
       </c>
       <c r="BR80" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BS80" s="4"/>
       <c r="BT80" s="4"/>
@@ -14396,10 +14408,10 @@
       </c>
       <c r="BZ80" s="4"/>
       <c r="CA80" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CB80" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CC80" s="4"/>
       <c r="CD80" s="4"/>
@@ -14425,32 +14437,32 @@
       <c r="CT80" s="4"/>
       <c r="CU80" s="4"/>
       <c r="CV80" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CW80" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CX80" s="4"/>
       <c r="CY80" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CZ80" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="DA80" s="4"/>
       <c r="DB80" s="6"/>
     </row>
     <row r="81" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
       <c r="I81" s="4" t="s">
         <v>9</v>
       </c>
@@ -14468,7 +14480,7 @@
         <v>31</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
@@ -14486,7 +14498,7 @@
         <v>3</v>
       </c>
       <c r="AC81" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
@@ -14514,7 +14526,7 @@
         <v>7</v>
       </c>
       <c r="AW81" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AX81" s="4"/>
       <c r="AY81" s="4"/>
@@ -14525,7 +14537,7 @@
       </c>
       <c r="BC81" s="4"/>
       <c r="BD81" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BE81" s="4"/>
       <c r="BF81" s="4"/>
@@ -14583,7 +14595,7 @@
         <v>159</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>43</v>
@@ -14603,10 +14615,10 @@
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N82" s="11" t="s">
         <v>1</v>
@@ -14630,7 +14642,7 @@
         <v>3</v>
       </c>
       <c r="AC82" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD82" s="11"/>
       <c r="AE82" s="11"/>
@@ -14719,10 +14731,10 @@
         <v>159</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
@@ -14851,7 +14863,7 @@
       <c r="CZ83" s="15"/>
       <c r="DA83" s="3"/>
       <c r="DB83" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:106" x14ac:dyDescent="0.25">
@@ -14859,10 +14871,10 @@
         <v>159</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
@@ -14999,7 +15011,7 @@
         <v>159</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>44</v>
@@ -15019,16 +15031,16 @@
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N85" s="11" t="s">
         <v>3</v>
       </c>
       <c r="O85" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P85" s="11"/>
       <c r="Q85" s="14"/>
@@ -15066,7 +15078,7 @@
         <v>7</v>
       </c>
       <c r="AW85" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AX85" s="11"/>
       <c r="AY85" s="11"/>
@@ -15077,7 +15089,7 @@
       </c>
       <c r="BC85" s="11"/>
       <c r="BD85" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BE85" s="11"/>
       <c r="BF85" s="7"/>
@@ -15135,10 +15147,10 @@
         <v>159</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -15157,16 +15169,16 @@
         <v>30</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="15"/>
@@ -15204,7 +15216,7 @@
         <v>7</v>
       </c>
       <c r="AW86" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AX86" s="3"/>
       <c r="AY86" s="3"/>
@@ -15215,7 +15227,7 @@
       </c>
       <c r="BC86" s="3"/>
       <c r="BD86" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BE86" s="3"/>
       <c r="BF86" s="3"/>
@@ -15271,16 +15283,16 @@
       </c>
     </row>
     <row r="87" spans="1:106" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
+      <c r="A87" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
       <c r="I87" s="4" t="s">
         <v>13</v>
       </c>
@@ -15289,20 +15301,20 @@
       </c>
       <c r="K87" s="5"/>
       <c r="L87" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="N87" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="M87" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="N87" s="4" t="s">
+      <c r="O87" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="P87" s="4"/>
       <c r="Q87" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
@@ -15318,7 +15330,7 @@
         <v>3</v>
       </c>
       <c r="AC87" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
@@ -15367,7 +15379,7 @@
         <v>7</v>
       </c>
       <c r="BR87" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BS87" s="4"/>
       <c r="BT87" s="4"/>
@@ -15382,10 +15394,10 @@
       </c>
       <c r="BZ87" s="4"/>
       <c r="CA87" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CB87" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CC87" s="4"/>
       <c r="CD87" s="4"/>
@@ -15411,17 +15423,17 @@
       <c r="CT87" s="4"/>
       <c r="CU87" s="4"/>
       <c r="CV87" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CW87" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CX87" s="4"/>
       <c r="CY87" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CZ87" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="DA87" s="4"/>
       <c r="DB87" s="6"/>
@@ -15431,7 +15443,7 @@
         <v>159</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>43</v>
@@ -15451,10 +15463,10 @@
       </c>
       <c r="K88" s="7"/>
       <c r="L88" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M88" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N88" s="11" t="s">
         <v>1</v>
@@ -15478,7 +15490,7 @@
         <v>3</v>
       </c>
       <c r="AC88" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD88" s="11"/>
       <c r="AE88" s="11"/>
@@ -15567,10 +15579,10 @@
         <v>159</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>421</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
@@ -15707,10 +15719,10 @@
         <v>159</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>423</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
@@ -15847,7 +15859,7 @@
         <v>159</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>44</v>
@@ -15855,7 +15867,7 @@
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -15867,20 +15879,20 @@
       </c>
       <c r="K91" s="7"/>
       <c r="L91" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M91" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N91" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="O91" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="O91" s="11" t="s">
-        <v>426</v>
       </c>
       <c r="P91" s="11"/>
       <c r="Q91" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R91" s="7"/>
       <c r="S91" s="11"/>
@@ -15937,7 +15949,7 @@
         <v>7</v>
       </c>
       <c r="BR91" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BS91" s="11"/>
       <c r="BT91" s="11"/>
@@ -15952,10 +15964,10 @@
       </c>
       <c r="BZ91" s="11"/>
       <c r="CA91" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CB91" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CC91" s="11"/>
       <c r="CD91" s="7"/>
@@ -15981,17 +15993,17 @@
       <c r="CT91" s="14"/>
       <c r="CU91" s="11"/>
       <c r="CV91" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CW91" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CX91" s="11"/>
       <c r="CY91" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CZ91" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="DA91" s="11"/>
       <c r="DB91" s="11"/>
@@ -16001,7 +16013,7 @@
         <v>159</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>45</v>
@@ -16029,10 +16041,10 @@
         <v>118</v>
       </c>
       <c r="N92" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="O92" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="15" t="s">
@@ -16125,17 +16137,17 @@
       <c r="CT92" s="15"/>
       <c r="CU92" s="3"/>
       <c r="CV92" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CW92" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CX92" s="3"/>
       <c r="CY92" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CZ92" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="DA92" s="3"/>
       <c r="DB92" s="3" t="s">
@@ -16147,10 +16159,10 @@
         <v>159</v>
       </c>
       <c r="B93" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -16169,20 +16181,20 @@
         <v>30</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
@@ -16239,7 +16251,7 @@
         <v>7</v>
       </c>
       <c r="BR93" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BS93" s="3"/>
       <c r="BT93" s="3"/>
@@ -16254,10 +16266,10 @@
       </c>
       <c r="BZ93" s="3"/>
       <c r="CA93" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CB93" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CC93" s="3"/>
       <c r="CD93" s="3"/>
@@ -16289,16 +16301,16 @@
       </c>
     </row>
     <row r="94" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
+      <c r="A94" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
       <c r="I94" s="4" t="s">
         <v>10</v>
       </c>
@@ -16307,16 +16319,16 @@
       </c>
       <c r="K94" s="5"/>
       <c r="L94" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N94" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
@@ -16399,7 +16411,7 @@
         <v>10</v>
       </c>
       <c r="CP94" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CQ94" s="4"/>
       <c r="CR94" s="4"/>
@@ -16414,7 +16426,7 @@
         <v>2</v>
       </c>
       <c r="CY94" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CZ94" s="4"/>
       <c r="DA94" s="4"/>
@@ -16425,10 +16437,10 @@
         <v>159</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>432</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>433</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>9</v>
@@ -16453,10 +16465,10 @@
         <v>167</v>
       </c>
       <c r="N95" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="O95" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="O95" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="P95" s="7"/>
       <c r="Q95" s="10"/>
@@ -16551,10 +16563,10 @@
       </c>
       <c r="CW95" s="10"/>
       <c r="CX95" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="CY95" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="CZ95" s="10"/>
       <c r="DA95" s="7"/>
@@ -16565,10 +16577,10 @@
         <v>159</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>437</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -16585,16 +16597,16 @@
         <v>30</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N96" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="O96" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="O96" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="P96" s="7"/>
       <c r="Q96" s="10"/>
@@ -16677,7 +16689,7 @@
         <v>7</v>
       </c>
       <c r="CP96" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CQ96" s="7"/>
       <c r="CR96" s="7"/>
@@ -16689,26 +16701,26 @@
       </c>
       <c r="CW96" s="10"/>
       <c r="CX96" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="CY96" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="CZ96" s="10"/>
       <c r="DA96" s="7"/>
       <c r="DB96" s="7"/>
     </row>
     <row r="97" spans="1:106" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="A97" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
       <c r="I97" s="4" t="s">
         <v>7</v>
       </c>
@@ -16717,16 +16729,16 @@
       </c>
       <c r="K97" s="5"/>
       <c r="L97" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N97" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="O97" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="O97" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
@@ -16764,7 +16776,7 @@
         <v>3</v>
       </c>
       <c r="AW97" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AX97" s="4" t="s">
         <v>16</v>
@@ -16779,7 +16791,7 @@
         <v>170</v>
       </c>
       <c r="BD97" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BE97" s="4"/>
       <c r="BF97" s="4"/>
@@ -16797,7 +16809,7 @@
         <v>3</v>
       </c>
       <c r="BR97" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BS97" s="4"/>
       <c r="BT97" s="4"/>
@@ -16812,7 +16824,7 @@
         <v>170</v>
       </c>
       <c r="CA97" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="CB97" s="4"/>
       <c r="CC97" s="4"/>
@@ -16820,7 +16832,7 @@
         <v>3</v>
       </c>
       <c r="CE97" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CF97" s="4"/>
       <c r="CG97" s="4"/>
@@ -16834,7 +16846,7 @@
         <v>170</v>
       </c>
       <c r="CM97" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="CN97" s="4"/>
       <c r="CO97" s="4"/>
@@ -16857,10 +16869,10 @@
         <v>159</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
@@ -16879,16 +16891,16 @@
         <v>30</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N98" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="O98" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="P98" s="7"/>
       <c r="Q98" s="10"/>
@@ -16926,7 +16938,7 @@
         <v>3</v>
       </c>
       <c r="AW98" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AX98" s="7" t="s">
         <v>16</v>
@@ -16941,7 +16953,7 @@
         <v>170</v>
       </c>
       <c r="BD98" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BE98" s="7"/>
       <c r="BF98" s="7"/>
@@ -17001,14 +17013,14 @@
         <v>159</v>
       </c>
       <c r="B99" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>447</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -17029,10 +17041,10 @@
         <v>118</v>
       </c>
       <c r="N99" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="O99" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="10"/>
@@ -17091,7 +17103,7 @@
         <v>3</v>
       </c>
       <c r="BR99" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BS99" s="7"/>
       <c r="BT99" s="7"/>
@@ -17106,7 +17118,7 @@
         <v>170</v>
       </c>
       <c r="CA99" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="CB99" s="10"/>
       <c r="CC99" s="7"/>
@@ -17114,7 +17126,7 @@
         <v>3</v>
       </c>
       <c r="CE99" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="CF99" s="7"/>
       <c r="CG99" s="7"/>
@@ -17128,7 +17140,7 @@
         <v>170</v>
       </c>
       <c r="CM99" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="CN99" s="7"/>
       <c r="CO99" s="7"/>
@@ -17145,7 +17157,7 @@
       <c r="CZ99" s="10"/>
       <c r="DA99" s="7"/>
       <c r="DB99" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167" spans="14:35" x14ac:dyDescent="0.25">
